--- a/data/trans_camb/iP22_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 25,9</t>
+          <t>4,7; 25,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 6,05</t>
+          <t>-12,61; 5,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 14,85</t>
+          <t>-8,48; 14,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 19,7</t>
+          <t>0,38; 18,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 15,07</t>
+          <t>-5,01; 15,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 16,26</t>
+          <t>-8,98; 15,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 19,58</t>
+          <t>5,11; 19,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 5,83</t>
+          <t>-6,43; 6,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 12,45</t>
+          <t>-6,12; 11,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,79; 227,18</t>
+          <t>20,55; 235,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,32; 61,78</t>
+          <t>-61,22; 54,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,64; 121,39</t>
+          <t>-47,41; 128,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 206,92</t>
+          <t>-1,3; 204,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,36; 165,11</t>
+          <t>-33,59; 155,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 189,98</t>
+          <t>-58,03; 173,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,58; 168,4</t>
+          <t>26,85; 182,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,88; 50,9</t>
+          <t>-37,0; 58,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 112,31</t>
+          <t>-36,7; 99,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 10,66</t>
+          <t>1,57; 10,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,78; -0,62</t>
+          <t>-8,75; -0,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -3,41</t>
+          <t>-11,76; -3,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 6,89</t>
+          <t>-2,39; 6,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 0,54</t>
+          <t>-7,93; 0,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -2,77</t>
+          <t>-11,31; -3,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,43</t>
+          <t>1,08; 7,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; -1,37</t>
+          <t>-7,57; -1,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; -4,56</t>
+          <t>-10,05; -4,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 54,89</t>
+          <t>6,31; 57,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,16; -3,07</t>
+          <t>-37,16; -3,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,54; -15,89</t>
+          <t>-50,48; -15,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 37,39</t>
+          <t>-10,18; 36,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,49; 2,89</t>
+          <t>-34,0; 2,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,77; -14,87</t>
+          <t>-48,75; -17,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,75; 36,79</t>
+          <t>4,12; 38,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-31,32; -7,03</t>
+          <t>-32,76; -9,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-45,79; -23,1</t>
+          <t>-44,21; -21,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 7,63</t>
+          <t>-7,65; 7,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 0,07</t>
+          <t>-14,09; 0,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,33; -0,66</t>
+          <t>-15,79; -0,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 15,23</t>
+          <t>-1,5; 13,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 7,67</t>
+          <t>-5,8; 7,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 7,66</t>
+          <t>-6,38; 7,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 8,24</t>
+          <t>-2,11; 8,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 1,95</t>
+          <t>-7,94; 2,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 1,83</t>
+          <t>-8,38; 2,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 35,37</t>
+          <t>-26,36; 37,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 0,05</t>
+          <t>-49,04; 1,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,91; -3,21</t>
+          <t>-54,33; -5,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 103,14</t>
+          <t>-6,85; 87,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 52,01</t>
+          <t>-27,5; 51,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 50,19</t>
+          <t>-30,7; 53,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 41,84</t>
+          <t>-8,29; 44,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 9,69</t>
+          <t>-33,28; 11,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,55; 10,95</t>
+          <t>-34,6; 11,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,63</t>
+          <t>2,19; 9,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,66; -1,72</t>
+          <t>-8,46; -1,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -3,15</t>
+          <t>-9,85; -3,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 7,9</t>
+          <t>1,02; 8,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,27</t>
+          <t>-4,92; 1,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,83; -0,79</t>
+          <t>-7,52; -0,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,5</t>
+          <t>2,51; 7,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,91; -1,26</t>
+          <t>-5,71; -0,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,09; -3,23</t>
+          <t>-8,1; -3,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>10,23; 47,42</t>
+          <t>9,09; 49,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-37,0; -8,86</t>
+          <t>-35,5; -8,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -15,88</t>
+          <t>-41,87; -14,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,26; 44,97</t>
+          <t>4,98; 46,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 6,99</t>
+          <t>-23,55; 8,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -4,56</t>
+          <t>-36,44; -4,67</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>11,6; 38,65</t>
+          <t>11,11; 38,72</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-26,63; -6,5</t>
+          <t>-26,3; -4,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-37,04; -16,5</t>
+          <t>-37,06; -16,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/iP22_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/iP22_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 18,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; 14,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,66; 31,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,81; 25,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,05; 4,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,04; 14,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,2; 19,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,22; 6,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 18,53</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,88%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 207,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,53; 152,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,36; 356,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,07; 220,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,61; 37,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,8; 128,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,26; 169,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,6; 60,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,27; 144,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,56</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-4,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,55</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-7,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 25,8</t>
+          <t>-2,37; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 5,31</t>
+          <t>-7,8; 0,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 14,78</t>
+          <t>-11,78; -2,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 18,38</t>
+          <t>1,53; 11,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 15,1</t>
+          <t>-8,77; -0,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 15,48</t>
+          <t>-11,72; -3,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 19,61</t>
+          <t>1,28; 7,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 6,99</t>
+          <t>-7,29; -1,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 11,78</t>
+          <t>-10,49; -4,16</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>101,35%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-24,7%</t>
+          <t>-18,99%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>-34,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>71,91%</t>
+          <t>28,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>-34,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>86,98%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>-20,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>-34,63%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 235,18</t>
+          <t>-10,22; 36,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,22; 54,06</t>
+          <t>-34,45; 1,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-47,41; 128,63</t>
+          <t>-52,16; -14,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 204,38</t>
+          <t>6,52; 56,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 155,4</t>
+          <t>-37,47; -0,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-58,03; 173,43</t>
+          <t>-49,43; -16,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,85; 182,14</t>
+          <t>5,49; 37,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 58,99</t>
+          <t>-31,9; -7,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 99,63</t>
+          <t>-46,85; -21,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,26</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,97</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-7,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,46</t>
+          <t>-3,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,94</t>
+          <t>-0,86; 13,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -0,64</t>
+          <t>-5,99; 7,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,76; -3,08</t>
+          <t>-5,75; 8,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 6,9</t>
+          <t>-8,1; 6,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 0,29</t>
+          <t>-14,55; 0,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,31; -3,3</t>
+          <t>-15,22; 1,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,83</t>
+          <t>-2,34; 8,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -1,89</t>
+          <t>-8,09; 1,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,05; -4,24</t>
+          <t>-8,33; 2,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-35,46%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>-2,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>-27,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-34,33%</t>
+          <t>-30,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,84%</t>
+          <t>-13,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-34,95%</t>
+          <t>-14,67%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,31; 57,36</t>
+          <t>-3,78; 88,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,16; -3,0</t>
+          <t>-26,71; 49,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-50,48; -15,35</t>
+          <t>-26,15; 52,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 36,38</t>
+          <t>-28,43; 30,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 2,09</t>
+          <t>-49,32; 3,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,75; -17,43</t>
+          <t>-52,67; 5,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 38,93</t>
+          <t>-9,82; 43,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,76; -9,35</t>
+          <t>-33,68; 8,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,21; -21,34</t>
+          <t>-34,56; 10,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-5,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 7,5</t>
+          <t>0,78; 7,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 0,28</t>
+          <t>-5,13; 1,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -0,76</t>
+          <t>-7,74; 0,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 13,39</t>
+          <t>2,1; 9,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,83</t>
+          <t>-8,67; -1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 7,97</t>
+          <t>-10,12; -3,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,28</t>
+          <t>2,6; 7,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 2,25</t>
+          <t>-5,69; -1,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 2,03</t>
+          <t>-7,66; -2,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,54%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-32,89%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>-23,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>-29,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>-16,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-17,15%</t>
+          <t>-24,95%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,36; 37,39</t>
+          <t>3,46; 43,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 1,38</t>
+          <t>-24,9; 7,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,33; -5,0</t>
+          <t>-37,17; 0,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 87,06</t>
+          <t>8,92; 46,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 51,39</t>
+          <t>-36,83; -9,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 53,42</t>
+          <t>-42,77; -14,55</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 44,41</t>
+          <t>11,8; 40,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 11,66</t>
+          <t>-26,08; -5,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 11,08</t>
+          <t>-35,37; -11,6</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,83</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-4,99</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-6,72</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-4,27</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-5,53</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 9,63</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-8,46; -1,72</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-9,85; -3,01</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 8,01</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 1,56</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-7,52; -0,87</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>2,51; 7,67</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; -0,96</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; -3,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>26,85%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-22,97%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-30,93%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-8,88%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-22,11%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>24,67%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-16,54%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-26,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>9,09; 49,4</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-35,5; -8,26</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-41,87; -14,73</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>4,98; 46,42</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-23,55; 8,88</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; -4,67</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 38,72</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-26,3; -4,89</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-37,06; -16,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
